--- a/src/assets/ModuloCarga.xlsx
+++ b/src/assets/ModuloCarga.xlsx
@@ -1,38 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\erick\Desktop\loadexcel\src\assets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\erick\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D070AD7-6153-4B6E-AD63-8BC8A2D52C02}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:8001_{C79E39C0-7480-44EB-9333-F0BDA3159DD3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="WhCjTHs94LBJYz1qhXXVd5hlyqk6Yem7LQlz6O4FOgiPfIBjn0kXJAbG5Otjd0tjPYNpcrgDlI3a8v933UCNwA==" workbookSaltValue="iNKWkmx9FWWxOwLa61k4YQ==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8136" xr2:uid="{A36C04B3-D2FF-408C-9DA1-48E81E6BB706}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="125725"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>asignado_a</t>
   </si>
@@ -110,6 +104,12 @@
   </si>
   <si>
     <t>observation</t>
+  </si>
+  <si>
+    <t>transformador</t>
+  </si>
+  <si>
+    <t>leido_por</t>
   </si>
 </sst>
 </file>
@@ -217,7 +217,7 @@
     <cellStyle name="20% - Énfasis5" xfId="3" builtinId="46"/>
     <cellStyle name="Incorrecto" xfId="2" builtinId="27"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{11D383FC-E238-4931-A7A8-F65E5AF1C150}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -275,7 +275,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -327,7 +327,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -528,47 +528,49 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DB0C293-267E-435E-827B-E5C37C890460}">
-  <dimension ref="A1:Z1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AB1"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G7" sqref="G7"/>
+      <selection pane="bottomLeft" activeCell="X2" sqref="X2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.6328125" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.81640625" style="2" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="15" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="5.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="4.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="6.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="4.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="8.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="11.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="10.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="12.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="16.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="11.5546875" style="1" customWidth="1"/>
-    <col min="28" max="16384" width="11.5546875" style="1"/>
+    <col min="16" max="16" width="15" style="2" customWidth="1"/>
+    <col min="17" max="17" width="5.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="4.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="4.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="7.54296875" style="2" customWidth="1"/>
+    <col min="24" max="24" width="10.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="16.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="11.54296875" style="1" customWidth="1"/>
+    <col min="30" max="16384" width="11.54296875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
@@ -615,36 +617,42 @@
         <v>16</v>
       </c>
       <c r="P1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="R1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="S1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="T1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="U1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="V1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="W1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="X1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="Y1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="Z1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="Y1" s="4" t="s">
+      <c r="AA1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="Z1" s="4" t="s">
+      <c r="AB1" s="4" t="s">
         <v>25</v>
       </c>
     </row>

--- a/src/assets/ModuloCarga.xlsx
+++ b/src/assets/ModuloCarga.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\erick\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\erick\Desktop\odisdkp09092019\src\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:8001_{C79E39C0-7480-44EB-9333-F0BDA3159DD3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{012D5F0E-2D95-4459-BC92-C88E68C80F10}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="WhCjTHs94LBJYz1qhXXVd5hlyqk6Yem7LQlz6O4FOgiPfIBjn0kXJAbG5Otjd0tjPYNpcrgDlI3a8v933UCNwA==" workbookSaltValue="iNKWkmx9FWWxOwLa61k4YQ==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>asignado_a</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>leido_por</t>
+  </si>
+  <si>
+    <t>lectura</t>
   </si>
 </sst>
 </file>
@@ -275,7 +278,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -327,7 +330,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -529,48 +532,48 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB1"/>
+  <dimension ref="A1:AC1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="X2" sqref="X2"/>
+      <selection pane="bottomLeft" activeCell="W1" sqref="W1:W1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.6328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.77734375" style="2" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="15" style="2" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="15" style="2" customWidth="1"/>
-    <col min="17" max="17" width="5.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="4.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="4.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="7.54296875" style="2" customWidth="1"/>
-    <col min="24" max="24" width="10.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="11.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="12.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="16.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="11.54296875" style="1" customWidth="1"/>
-    <col min="30" max="16384" width="11.54296875" style="1"/>
+    <col min="17" max="17" width="5.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="4.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="4.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="7.5546875" style="2" customWidth="1"/>
+    <col min="24" max="24" width="10.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="10.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="7.5546875" style="2" customWidth="1"/>
+    <col min="29" max="29" width="16.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="11.5546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
@@ -638,7 +641,7 @@
         <v>22</v>
       </c>
       <c r="W1" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="X1" s="4" t="s">
         <v>23</v>
@@ -653,6 +656,9 @@
         <v>1</v>
       </c>
       <c r="AB1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="4" t="s">
         <v>25</v>
       </c>
     </row>

--- a/src/assets/ModuloCarga.xlsx
+++ b/src/assets/ModuloCarga.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\erick\Desktop\odisdkp09092019\src\assets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\erick\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{012D5F0E-2D95-4459-BC92-C88E68C80F10}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E759A9C-C90F-4543-ACCC-8468B5C2FB8C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="WhCjTHs94LBJYz1qhXXVd5hlyqk6Yem7LQlz6O4FOgiPfIBjn0kXJAbG5Otjd0tjPYNpcrgDlI3a8v933UCNwA==" workbookSaltValue="iNKWkmx9FWWxOwLa61k4YQ==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>asignado_a</t>
   </si>
@@ -113,6 +113,30 @@
   </si>
   <si>
     <t>lectura</t>
+  </si>
+  <si>
+    <t>set</t>
+  </si>
+  <si>
+    <t>alimentador</t>
+  </si>
+  <si>
+    <t>sed</t>
+  </si>
+  <si>
+    <t>llave_circuito</t>
+  </si>
+  <si>
+    <t>fase</t>
+  </si>
+  <si>
+    <t>clave_lectura</t>
+  </si>
+  <si>
+    <t>fecha_ultima_lectura</t>
+  </si>
+  <si>
+    <t>fecha_ultima_deteccion</t>
   </si>
 </sst>
 </file>
@@ -158,7 +182,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -174,6 +198,12 @@
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -207,7 +237,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
@@ -215,6 +245,7 @@
     </xf>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="20% - Énfasis5" xfId="3" builtinId="46"/>
@@ -532,18 +563,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC1"/>
+  <dimension ref="A1:AK1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="W1" sqref="W1:W1048576"/>
+      <selection pane="bottomLeft" activeCell="AL4" sqref="AL4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4.77734375" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
@@ -570,10 +601,18 @@
     <col min="27" max="27" width="12.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="7.5546875" style="2" customWidth="1"/>
     <col min="29" max="29" width="16.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="11.5546875" style="1"/>
+    <col min="30" max="30" width="3.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="11.5546875" style="1"/>
+    <col min="32" max="32" width="3.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="11.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="11.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="18.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="20.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="38" max="16384" width="11.5546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
@@ -660,6 +699,30 @@
       </c>
       <c r="AC1" s="4" t="s">
         <v>25</v>
+      </c>
+      <c r="AD1" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" s="5" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/src/assets/ModuloCarga.xlsx
+++ b/src/assets/ModuloCarga.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\erick\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\erick\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E759A9C-C90F-4543-ACCC-8468B5C2FB8C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{617E4C95-8F8F-4A97-85B9-35FDF53164C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="WhCjTHs94LBJYz1qhXXVd5hlyqk6Yem7LQlz6O4FOgiPfIBjn0kXJAbG5Otjd0tjPYNpcrgDlI3a8v933UCNwA==" workbookSaltValue="iNKWkmx9FWWxOwLa61k4YQ==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>asignado_a</t>
   </si>
@@ -137,6 +137,9 @@
   </si>
   <si>
     <t>fecha_ultima_deteccion</t>
+  </si>
+  <si>
+    <t>falta_ultimo_cnr</t>
   </si>
 </sst>
 </file>
@@ -563,11 +566,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AK1"/>
+  <dimension ref="A1:AL1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="T1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AL4" sqref="AL4"/>
+      <selection pane="bottomLeft" activeCell="AK4" sqref="AK4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -609,10 +612,11 @@
     <col min="35" max="35" width="11.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="18.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="20.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="38" max="16384" width="11.5546875" style="1"/>
+    <col min="38" max="38" width="21.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="39" max="16384" width="11.5546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
@@ -723,6 +727,9 @@
       </c>
       <c r="AK1" s="5" t="s">
         <v>36</v>
+      </c>
+      <c r="AL1" s="5" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/src/assets/ModuloCarga.xlsx
+++ b/src/assets/ModuloCarga.xlsx
@@ -5,13 +5,13 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\erick\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\erick\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{617E4C95-8F8F-4A97-85B9-35FDF53164C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE48FF06-B3B3-45AD-9C5C-190CA14855F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="WhCjTHs94LBJYz1qhXXVd5hlyqk6Yem7LQlz6O4FOgiPfIBjn0kXJAbG5Otjd0tjPYNpcrgDlI3a8v933UCNwA==" workbookSaltValue="iNKWkmx9FWWxOwLa61k4YQ==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>asignado_a</t>
   </si>
@@ -140,13 +140,16 @@
   </si>
   <si>
     <t>falta_ultimo_cnr</t>
+  </si>
+  <si>
+    <t>factor</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -184,6 +187,24 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -210,7 +231,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -233,14 +254,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="22"/>
+      </left>
+      <right style="thin">
+        <color indexed="22"/>
+      </right>
+      <top style="thin">
+        <color indexed="22"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
@@ -249,12 +286,25 @@
     <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
     <cellStyle name="20% - Énfasis5" xfId="3" builtinId="46"/>
     <cellStyle name="Incorrecto" xfId="2" builtinId="27"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Normal_Hoja1" xfId="4" xr:uid="{1A5B80BF-2CDF-408F-B994-56A114CF4162}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -566,11 +616,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AL1"/>
+  <dimension ref="A1:AM2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AK4" sqref="AK4"/>
+      <selection pane="bottomLeft" activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -578,45 +628,46 @@
     <col min="1" max="1" width="13.21875" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15" style="2" customWidth="1"/>
+    <col min="6" max="6" width="7.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="5.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="4.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="4.21875" style="2" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="6.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="4.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="7.5546875" style="2" customWidth="1"/>
-    <col min="24" max="24" width="10.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="11.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="10.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="12.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="7.5546875" style="2" customWidth="1"/>
-    <col min="29" max="29" width="16.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="5" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="6.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="10.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="13.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="9" style="2" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="11" style="2" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="3.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="11.5546875" style="1"/>
-    <col min="32" max="32" width="3.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="11.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="3.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="12.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="11.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="18.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="20.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="12.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="19" style="1" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="21.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="39" max="16384" width="11.5546875" style="1"/>
+    <col min="39" max="39" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="40" max="16384" width="11.5546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
@@ -720,17 +771,60 @@
         <v>33</v>
       </c>
       <c r="AI1" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="AJ1" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="5" t="s">
+      <c r="AK1" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="5" t="s">
+      <c r="AL1" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="5" t="s">
+      <c r="AM1" s="5" t="s">
         <v>37</v>
       </c>
+    </row>
+    <row r="2" spans="1:39" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="7"/>
+      <c r="T2" s="7"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="7"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2"/>
+      <c r="AA2" s="2"/>
+      <c r="AB2" s="2"/>
+      <c r="AC2" s="2"/>
+      <c r="AD2" s="2"/>
+      <c r="AE2" s="8"/>
+      <c r="AF2" s="9"/>
+      <c r="AG2" s="7"/>
+      <c r="AH2" s="7"/>
+      <c r="AI2" s="7"/>
+      <c r="AJ2" s="7"/>
+      <c r="AK2" s="1"/>
+      <c r="AL2" s="7"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" insertHyperlinks="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>

--- a/src/assets/ModuloCarga.xlsx
+++ b/src/assets/ModuloCarga.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\erick\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\erick\Desktop\odisdkp-016e271\src\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE48FF06-B3B3-45AD-9C5C-190CA14855F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4829845F-1E61-4D6F-AB1D-7A376EF9690E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="WhCjTHs94LBJYz1qhXXVd5hlyqk6Yem7LQlz6O4FOgiPfIBjn0kXJAbG5Otjd0tjPYNpcrgDlI3a8v933UCNwA==" workbookSaltValue="iNKWkmx9FWWxOwLa61k4YQ==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>asignado_a</t>
   </si>
@@ -143,6 +143,9 @@
   </si>
   <si>
     <t>factor</t>
+  </si>
+  <si>
+    <t>equipo</t>
   </si>
 </sst>
 </file>
@@ -616,11 +619,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AM2"/>
+  <dimension ref="A1:AN2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="O1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O12" sqref="O12"/>
+      <selection pane="bottomLeft" activeCell="AB4" sqref="AB4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -651,23 +654,23 @@
     <col min="24" max="24" width="11.21875" style="2" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="11.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="10.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="13.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="9" style="2" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="11" style="2" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="3.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="3.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="12.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="12.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="19" style="1" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="21.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="40" max="16384" width="11.5546875" style="1"/>
+    <col min="28" max="28" width="13.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="9" style="2" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="3.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="3.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="12.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="12.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="19" style="1" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="21.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="41" max="16384" width="11.5546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
@@ -747,46 +750,49 @@
         <v>0</v>
       </c>
       <c r="AA1" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="AB1" s="4" t="s">
+      <c r="AC1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="4" t="s">
+      <c r="AD1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="AD1" s="5" t="s">
+      <c r="AE1" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="5" t="s">
+      <c r="AF1" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="5" t="s">
+      <c r="AG1" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="5" t="s">
+      <c r="AH1" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="5" t="s">
+      <c r="AI1" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="5" t="s">
+      <c r="AJ1" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="AJ1" s="5" t="s">
+      <c r="AK1" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="AK1" s="5" t="s">
+      <c r="AL1" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="AL1" s="5" t="s">
+      <c r="AM1" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="AM1" s="5" t="s">
+      <c r="AN1" s="5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:39" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:40" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="6"/>
       <c r="C2" s="7"/>
@@ -813,18 +819,18 @@
       <c r="X2" s="2"/>
       <c r="Y2" s="2"/>
       <c r="Z2" s="2"/>
-      <c r="AA2" s="2"/>
       <c r="AB2" s="2"/>
       <c r="AC2" s="2"/>
       <c r="AD2" s="2"/>
-      <c r="AE2" s="8"/>
-      <c r="AF2" s="9"/>
-      <c r="AG2" s="7"/>
+      <c r="AE2" s="2"/>
+      <c r="AF2" s="8"/>
+      <c r="AG2" s="9"/>
       <c r="AH2" s="7"/>
       <c r="AI2" s="7"/>
       <c r="AJ2" s="7"/>
-      <c r="AK2" s="1"/>
-      <c r="AL2" s="7"/>
+      <c r="AK2" s="7"/>
+      <c r="AL2" s="1"/>
+      <c r="AM2" s="7"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" insertHyperlinks="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
